--- a/mbs-perturbation/mega/MLP/smote/mega-mlp-smote-results.xlsx
+++ b/mbs-perturbation/mega/MLP/smote/mega-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5196629213483146</v>
+        <v>0.6958174904942965</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9946236559139785</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6826568265682657</v>
+        <v>0.8151447661469932</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7407937333795815</v>
+        <v>0.8201959764134582</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6721311475409836</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6612903225806451</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.729483282674772</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7630506416926812</v>
+        <v>0.696395537056307</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07526881720430108</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1393034825870647</v>
+        <v>0.8852459016393444</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5551797895710487</v>
+        <v>0.8969244999421899</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8562874251497006</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7688172043010753</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8101983002832861</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8712002324905551</v>
+        <v>0.8841034582970068</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.986013986013986</v>
+        <v>0.9735099337748344</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7621621621621621</v>
+        <v>0.7945945945945946</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8597560975609756</v>
+        <v>0.875</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8856727695437372</v>
+        <v>0.9130485324033711</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7934857626772635</v>
+        <v>0.8816976526859941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6524324324324324</v>
+        <v>0.8116070909619297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6317162747332518</v>
+        <v>0.8341455217995388</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7631794333355207</v>
+        <v>0.8421336008224666</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/MLP/smote/mega-mlp-smote-results.xlsx
+++ b/mbs-perturbation/mega/MLP/smote/mega-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6958174904942965</v>
+        <v>0.5487364620938628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9838709677419355</v>
+        <v>0.8994082840236687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8151447661469932</v>
+        <v>0.6816143497757848</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8201959764134582</v>
+        <v>0.7218584783445959</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.7015706806282722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7928994082840237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.729483282674772</v>
+        <v>0.7444444444444444</v>
       </c>
       <c r="E3" t="n">
-        <v>0.696395537056307</v>
+        <v>0.8331115857287912</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8698224852071006</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8852459016393444</v>
+        <v>0.8497109826589595</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8969244999421899</v>
+        <v>0.9128882041945311</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.8165680473372781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8658536585365854</v>
+        <v>0.8990228013029316</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8841034582970068</v>
+        <v>0.9893911277616328</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9735099337748344</v>
+        <v>0.948905109489051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7945945945945946</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.875</v>
+        <v>0.8496732026143792</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9130485324033711</v>
+        <v>0.9603305206400337</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8816976526859941</v>
+        <v>0.8059441453574916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8116070909619297</v>
+        <v>0.829585798816568</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8341455217995388</v>
+        <v>0.8048931561592999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8421336008224666</v>
+        <v>0.8835159833339169</v>
       </c>
     </row>
   </sheetData>
